--- a/Project/Files/results_accuracy.xlsx
+++ b/Project/Files/results_accuracy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11700" yWindow="2440" windowWidth="15940" windowHeight="13740" tabRatio="500"/>
+    <workbookView xWindow="12000" yWindow="460" windowWidth="15940" windowHeight="13740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Classe</t>
   </si>
@@ -56,15 +56,6 @@
     <t>sortear</t>
   </si>
   <si>
-    <t>en + ir</t>
-  </si>
-  <si>
-    <t>tendir</t>
-  </si>
-  <si>
-    <t>jentir</t>
-  </si>
-  <si>
     <t>por</t>
   </si>
   <si>
@@ -80,9 +71,6 @@
     <t>secar</t>
   </si>
   <si>
-    <t>rendir</t>
-  </si>
-  <si>
     <t>o+ir</t>
   </si>
   <si>
@@ -129,6 +117,9 @@
   </si>
   <si>
     <t>comer</t>
+  </si>
+  <si>
+    <t>em + ir</t>
   </si>
 </sst>
 </file>
@@ -183,11 +174,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -481,14 +472,14 @@
       <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C2" s="1">
@@ -516,19 +507,17 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -538,7 +527,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -548,7 +537,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -577,18 +566,22 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <v>1</v>
-      </c>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
       <c r="G9" s="2">
         <v>1</v>
       </c>
@@ -618,7 +611,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -638,10 +631,10 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -661,7 +654,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -681,20 +674,33 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -704,31 +710,36 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="2">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1</v>
-      </c>
-      <c r="G17" s="2">
-        <v>1</v>
-      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
       <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -737,31 +748,44 @@
       <c r="B19" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
       <c r="D19" s="2">
         <v>1</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="4"/>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
         <v>22</v>
       </c>
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
       <c r="C21" s="2">
         <v>1</v>
       </c>
@@ -779,31 +803,20 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
         <v>23</v>
       </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1</v>
-      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
       <c r="E22" s="2">
         <v>1</v>
       </c>
-      <c r="F22" s="2">
-        <v>1</v>
-      </c>
-      <c r="G22" s="2">
-        <v>1</v>
-      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -812,77 +825,35 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2">
-        <v>1</v>
-      </c>
-      <c r="E24" s="2">
-        <v>1</v>
-      </c>
-      <c r="F24" s="2">
-        <v>1</v>
-      </c>
-      <c r="G24" s="2">
-        <v>1</v>
-      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="2">
-        <v>1</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="5">
-        <f>SUM(C3:C26)/36</f>
-        <v>0.19444444444444445</v>
-      </c>
-      <c r="D28" s="5">
-        <f>SUM(D3:D26)/36</f>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="E28" s="5">
-        <f>SUM(E3:E26)/36</f>
-        <v>0.19444444444444445</v>
-      </c>
-      <c r="F28" s="5">
-        <f>SUM(F3:F26)/36</f>
-        <v>0.19444444444444445</v>
-      </c>
-      <c r="G28" s="5">
-        <f>SUM(G3:G26)/36</f>
-        <v>0.2638888888888889</v>
+        <v>24</v>
+      </c>
+      <c r="C25" s="4">
+        <f>SUM(C3:C23)/21</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" ref="D25:G25" si="0">SUM(D3:D23)/21</f>
+        <v>0.38095238095238093</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="0"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="0"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="0"/>
+        <v>0.42857142857142855</v>
       </c>
     </row>
   </sheetData>

--- a/Project/Files/results_accuracy.xlsx
+++ b/Project/Files/results_accuracy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12000" yWindow="460" windowWidth="15940" windowHeight="13740" tabRatio="500"/>
+    <workbookView xWindow="16700" yWindow="2000" windowWidth="11880" windowHeight="12960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -460,7 +460,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -603,11 +603,15 @@
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
@@ -808,9 +812,7 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="2">
-        <v>1</v>
-      </c>
+      <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
@@ -837,7 +839,7 @@
       </c>
       <c r="C25" s="4">
         <f>SUM(C3:C23)/21</f>
-        <v>0.42857142857142855</v>
+        <v>0.47619047619047616</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ref="D25:G25" si="0">SUM(D3:D23)/21</f>
@@ -845,7 +847,7 @@
       </c>
       <c r="E25" s="4">
         <f t="shared" si="0"/>
-        <v>0.42857142857142855</v>
+        <v>0.38095238095238093</v>
       </c>
       <c r="F25" s="4">
         <f t="shared" si="0"/>
@@ -853,7 +855,7 @@
       </c>
       <c r="G25" s="4">
         <f t="shared" si="0"/>
-        <v>0.42857142857142855</v>
+        <v>0.47619047619047616</v>
       </c>
     </row>
   </sheetData>
